--- a/relatorios/repasses_liberados/dentistas/11096547406/2023-08-25_relatorio_repasses_11096547406.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11096547406/2023-08-25_relatorio_repasses_11096547406.xlsx
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N404">
         <v>0</v>
@@ -19653,7 +19653,7 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N408">
         <v>0</v>
@@ -19697,7 +19697,7 @@
         <v>0</v>
       </c>
       <c r="M409">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N409">
         <v>0</v>
@@ -21237,7 +21237,7 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N444">
         <v>0</v>
@@ -21325,7 +21325,7 @@
         <v>0</v>
       </c>
       <c r="M446">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N446">
         <v>0</v>
@@ -22073,7 +22073,7 @@
         <v>0</v>
       </c>
       <c r="M463">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N463">
         <v>0</v>
@@ -22117,7 +22117,7 @@
         <v>0</v>
       </c>
       <c r="M464">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N464">
         <v>0</v>
@@ -22337,7 +22337,7 @@
         <v>0</v>
       </c>
       <c r="M469">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N469">
         <v>0</v>
@@ -22381,7 +22381,7 @@
         <v>0</v>
       </c>
       <c r="M470">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N470">
         <v>0</v>
@@ -23173,7 +23173,7 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N488">
         <v>0</v>
@@ -23217,7 +23217,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N496">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N515">
         <v>0</v>
@@ -24845,7 +24845,7 @@
         <v>0</v>
       </c>
       <c r="M526">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N526">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="M527">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N527">
         <v>0</v>
@@ -25197,7 +25197,7 @@
         <v>0</v>
       </c>
       <c r="M534">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N534">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N554">
         <v>0</v>
@@ -26121,7 +26121,7 @@
         <v>0</v>
       </c>
       <c r="M555">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N555">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>0</v>
       </c>
       <c r="M556">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N556">
         <v>0</v>
@@ -26253,7 +26253,7 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N558">
         <v>0</v>
@@ -26297,7 +26297,7 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N559">
         <v>0</v>
@@ -26385,7 +26385,7 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N561">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N562">
         <v>0</v>
@@ -26473,7 +26473,7 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N563">
         <v>0</v>
@@ -26649,7 +26649,7 @@
         <v>0</v>
       </c>
       <c r="M567">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N567">
         <v>0</v>
@@ -26869,7 +26869,7 @@
         <v>0</v>
       </c>
       <c r="M572">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N572">
         <v>0</v>
@@ -27133,7 +27133,7 @@
         <v>0</v>
       </c>
       <c r="M578">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N578">
         <v>0</v>
@@ -27177,7 +27177,7 @@
         <v>0</v>
       </c>
       <c r="M579">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N579">
         <v>0</v>
@@ -28145,7 +28145,7 @@
         <v>0</v>
       </c>
       <c r="M601">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N601">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="M621">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N621">
         <v>0</v>
@@ -29157,7 +29157,7 @@
         <v>0</v>
       </c>
       <c r="M624">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N624">
         <v>0</v>
@@ -30521,7 +30521,7 @@
         <v>0</v>
       </c>
       <c r="M655">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N655">
         <v>0</v>
@@ -30565,7 +30565,7 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N656">
         <v>0</v>
@@ -31049,7 +31049,7 @@
         <v>0</v>
       </c>
       <c r="M667">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N667">
         <v>0</v>
@@ -31137,7 +31137,7 @@
         <v>0</v>
       </c>
       <c r="M669">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N669">
         <v>0</v>
@@ -31401,7 +31401,7 @@
         <v>0</v>
       </c>
       <c r="M675">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N675">
         <v>0</v>
@@ -32589,7 +32589,7 @@
         <v>0</v>
       </c>
       <c r="M702">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N702">
         <v>0</v>
@@ -32721,7 +32721,7 @@
         <v>0</v>
       </c>
       <c r="M705">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N705">
         <v>0</v>
@@ -33029,7 +33029,7 @@
         <v>0</v>
       </c>
       <c r="M712">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N712">
         <v>0</v>
@@ -33601,7 +33601,7 @@
         <v>0</v>
       </c>
       <c r="M725">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N725">
         <v>0</v>
@@ -33645,7 +33645,7 @@
         <v>0</v>
       </c>
       <c r="M726">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N726">
         <v>0</v>
@@ -33689,7 +33689,7 @@
         <v>0</v>
       </c>
       <c r="M727">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N727">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>0</v>
       </c>
       <c r="M728">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N728">
         <v>0</v>
@@ -33909,7 +33909,7 @@
         <v>0</v>
       </c>
       <c r="M732">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N732">
         <v>0</v>
@@ -34173,7 +34173,7 @@
         <v>0</v>
       </c>
       <c r="M738">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N738">
         <v>0</v>
@@ -34261,7 +34261,7 @@
         <v>0</v>
       </c>
       <c r="M740">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N740">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="M811">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N811">
         <v>0</v>
@@ -37429,7 +37429,7 @@
         <v>0</v>
       </c>
       <c r="M812">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N812">
         <v>0</v>
@@ -37517,7 +37517,7 @@
         <v>0</v>
       </c>
       <c r="M814">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N814">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N815">
         <v>0</v>
@@ -42885,7 +42885,7 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N936">
         <v>0</v>
@@ -43281,7 +43281,7 @@
         <v>0</v>
       </c>
       <c r="M945">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N945">
         <v>0</v>
@@ -43325,7 +43325,7 @@
         <v>0</v>
       </c>
       <c r="M946">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N946">
         <v>0</v>
@@ -43369,7 +43369,7 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N947">
         <v>0</v>
@@ -44733,7 +44733,7 @@
         <v>0</v>
       </c>
       <c r="M978">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N978">
         <v>0</v>
@@ -45085,7 +45085,7 @@
         <v>0</v>
       </c>
       <c r="M986">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N986">
         <v>0</v>
@@ -45613,7 +45613,7 @@
         <v>0</v>
       </c>
       <c r="M998">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N998">
         <v>0</v>
@@ -45701,7 +45701,7 @@
         <v>0</v>
       </c>
       <c r="M1000">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N1000">
         <v>0</v>
@@ -46713,7 +46713,7 @@
         <v>0</v>
       </c>
       <c r="M1023">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1023">
         <v>0</v>
@@ -46757,7 +46757,7 @@
         <v>0</v>
       </c>
       <c r="M1024">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1024">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/11096547406/2023-08-25_relatorio_repasses_11096547406.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11096547406/2023-08-25_relatorio_repasses_11096547406.xlsx
@@ -6937,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N119">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7157,10 +7157,10 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N124">
-        <v>6.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -7201,10 +7201,10 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -7377,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N129">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7421,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N130">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -7465,10 +7465,10 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N131">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7553,10 +7553,10 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N133">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N143">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -8609,10 +8609,10 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N157">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -8653,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N158">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -8697,10 +8697,10 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N159">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -8917,10 +8917,10 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N164">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -9049,10 +9049,10 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N167">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -10237,10 +10237,10 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N194">
-        <v>11.319</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -10281,10 +10281,10 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N195">
-        <v>11.319</v>
+        <v>65</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -10325,10 +10325,10 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N196">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -10545,10 +10545,10 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N201">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -10589,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N202">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -10765,10 +10765,10 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N206">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11821,10 +11821,10 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N230">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -11865,10 +11865,10 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N231">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -11909,10 +11909,10 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N232">
-        <v>9.792</v>
+        <v>13.056</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11953,10 +11953,10 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N233">
-        <v>9.792</v>
+        <v>13.056</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12129,10 +12129,10 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N237">
-        <v>3.06</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12261,10 +12261,10 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N240">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12569,10 +12569,10 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N247">
-        <v>1.98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -12613,10 +12613,10 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N248">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -12657,10 +12657,10 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N249">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -13273,10 +13273,10 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N263">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -13317,10 +13317,10 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N264">
-        <v>3.003</v>
+        <v>4.004</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -13933,10 +13933,10 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N278">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -14021,10 +14021,10 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N280">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -14065,10 +14065,10 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N281">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -14417,10 +14417,10 @@
         <v>0</v>
       </c>
       <c r="M289">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N289">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -14637,10 +14637,10 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N294">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14725,10 +14725,10 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N296">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -15385,10 +15385,10 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N311">
-        <v>6.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -15693,10 +15693,10 @@
         <v>0</v>
       </c>
       <c r="M318">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N318">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -15825,10 +15825,10 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N321">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -15869,10 +15869,10 @@
         <v>0</v>
       </c>
       <c r="M322">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N322">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -15913,10 +15913,10 @@
         <v>0</v>
       </c>
       <c r="M323">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N323">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -16089,10 +16089,10 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N327">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -16265,10 +16265,10 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N331">
-        <v>2.592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -16309,10 +16309,10 @@
         <v>0</v>
       </c>
       <c r="M332">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N332">
-        <v>6.75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -16353,10 +16353,10 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N333">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -16397,10 +16397,10 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N334">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -16441,10 +16441,10 @@
         <v>0</v>
       </c>
       <c r="M335">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N335">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -16529,10 +16529,10 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N337">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -16617,10 +16617,10 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N339">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -16881,10 +16881,10 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N345">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="346" spans="1:14">
@@ -17145,10 +17145,10 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N351">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:14">
@@ -17277,10 +17277,10 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N354">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="355" spans="1:14">
@@ -17321,10 +17321,10 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N355">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="356" spans="1:14">
@@ -17365,10 +17365,10 @@
         <v>0</v>
       </c>
       <c r="M356">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N356">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:14">
@@ -17849,10 +17849,10 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N367">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="368" spans="1:14">
@@ -17893,10 +17893,10 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N368">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="369" spans="1:14">
@@ -18025,10 +18025,10 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N371">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="372" spans="1:14">
@@ -18069,10 +18069,10 @@
         <v>0</v>
       </c>
       <c r="M372">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N372">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="373" spans="1:14">
@@ -18113,10 +18113,10 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="N373">
-        <v>6.6</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="374" spans="1:14">
@@ -18245,10 +18245,10 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N376">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:14">
@@ -18289,10 +18289,10 @@
         <v>0</v>
       </c>
       <c r="M377">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N377">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="378" spans="1:14">
@@ -19125,7 +19125,7 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N396">
         <v>0</v>
@@ -19213,7 +19213,7 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N398">
         <v>0</v>
@@ -19257,7 +19257,7 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N399">
         <v>0</v>
@@ -19389,7 +19389,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -19433,7 +19433,7 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N403">
         <v>0</v>
@@ -19565,7 +19565,7 @@
         <v>0</v>
       </c>
       <c r="M406">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N406">
         <v>0</v>
@@ -19609,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="M407">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N407">
         <v>0</v>
@@ -19741,7 +19741,7 @@
         <v>0</v>
       </c>
       <c r="M410">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N410">
         <v>0</v>
@@ -19873,7 +19873,7 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N413">
         <v>0</v>
@@ -19917,7 +19917,7 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N414">
         <v>0</v>
@@ -19961,7 +19961,7 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N415">
         <v>0</v>
@@ -20005,7 +20005,7 @@
         <v>0</v>
       </c>
       <c r="M416">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N416">
         <v>0</v>
@@ -20313,7 +20313,7 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N423">
         <v>0</v>
@@ -20753,7 +20753,7 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N433">
         <v>0</v>
@@ -20841,7 +20841,7 @@
         <v>0</v>
       </c>
       <c r="M435">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N435">
         <v>0</v>
@@ -20929,7 +20929,7 @@
         <v>0</v>
       </c>
       <c r="M437">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N437">
         <v>0</v>
@@ -21061,7 +21061,7 @@
         <v>0</v>
       </c>
       <c r="M440">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N440">
         <v>0</v>
@@ -21149,7 +21149,7 @@
         <v>0</v>
       </c>
       <c r="M442">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N442">
         <v>0</v>
@@ -21193,7 +21193,7 @@
         <v>0</v>
       </c>
       <c r="M443">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N443">
         <v>0</v>
@@ -21237,7 +21237,7 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N444">
         <v>0</v>
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N445">
         <v>0</v>
@@ -21369,7 +21369,7 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N447">
         <v>0</v>
@@ -21457,7 +21457,7 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N449">
         <v>0</v>
@@ -21721,7 +21721,7 @@
         <v>0</v>
       </c>
       <c r="M455">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N455">
         <v>0</v>
@@ -21809,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="M457">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N457">
         <v>0</v>
@@ -21853,7 +21853,7 @@
         <v>0</v>
       </c>
       <c r="M458">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N458">
         <v>0</v>
@@ -21897,7 +21897,7 @@
         <v>0</v>
       </c>
       <c r="M459">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N459">
         <v>0</v>
@@ -21941,7 +21941,7 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N460">
         <v>0</v>
@@ -21985,7 +21985,7 @@
         <v>0</v>
       </c>
       <c r="M461">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N461">
         <v>0</v>
@@ -22073,7 +22073,7 @@
         <v>0</v>
       </c>
       <c r="M463">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N463">
         <v>0</v>
@@ -22117,7 +22117,7 @@
         <v>0</v>
       </c>
       <c r="M464">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N464">
         <v>0</v>
@@ -22161,7 +22161,7 @@
         <v>0</v>
       </c>
       <c r="M465">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N465">
         <v>0</v>
@@ -22337,7 +22337,7 @@
         <v>0</v>
       </c>
       <c r="M469">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N469">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="M475">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N475">
         <v>0</v>
@@ -22733,7 +22733,7 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N478">
         <v>0</v>
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
       <c r="M479">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N479">
         <v>0</v>
@@ -22909,7 +22909,7 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N482">
         <v>0</v>
@@ -22953,7 +22953,7 @@
         <v>0</v>
       </c>
       <c r="M483">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N483">
         <v>0</v>
@@ -22997,7 +22997,7 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N484">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="M485">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N485">
         <v>0</v>
@@ -23173,7 +23173,7 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N488">
         <v>0</v>
@@ -23217,7 +23217,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="M490">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N490">
         <v>0</v>
@@ -23349,7 +23349,7 @@
         <v>0</v>
       </c>
       <c r="M492">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N492">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="M493">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N493">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="M494">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N494">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="M495">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N495">
         <v>0</v>
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N496">
         <v>0</v>
@@ -23613,7 +23613,7 @@
         <v>0</v>
       </c>
       <c r="M498">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N498">
         <v>0</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="M504">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="N504">
         <v>0</v>
@@ -23921,7 +23921,7 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N505">
         <v>0</v>
@@ -23965,7 +23965,7 @@
         <v>0</v>
       </c>
       <c r="M506">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N506">
         <v>0</v>
@@ -24273,7 +24273,7 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N513">
         <v>0</v>
@@ -24317,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N514">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N515">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="M517">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N517">
         <v>0</v>
@@ -24537,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="M519">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N519">
         <v>0</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N520">
         <v>0</v>
@@ -24625,7 +24625,7 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N521">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="M522">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N522">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="M527">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N527">
         <v>0</v>
@@ -25021,7 +25021,7 @@
         <v>0</v>
       </c>
       <c r="M530">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N530">
         <v>0</v>
@@ -25197,7 +25197,7 @@
         <v>0</v>
       </c>
       <c r="M534">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N534">
         <v>0</v>
@@ -25241,7 +25241,7 @@
         <v>0</v>
       </c>
       <c r="M535">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N535">
         <v>0</v>
@@ -25285,7 +25285,7 @@
         <v>0</v>
       </c>
       <c r="M536">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N536">
         <v>0</v>
@@ -25373,7 +25373,7 @@
         <v>0</v>
       </c>
       <c r="M538">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N538">
         <v>0</v>
@@ -25857,7 +25857,7 @@
         <v>0</v>
       </c>
       <c r="M549">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N549">
         <v>0</v>
@@ -25945,7 +25945,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -26033,7 +26033,7 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N553">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N554">
         <v>0</v>
@@ -26121,7 +26121,7 @@
         <v>0</v>
       </c>
       <c r="M555">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N555">
         <v>0</v>
@@ -26209,7 +26209,7 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N557">
         <v>0</v>
@@ -26253,7 +26253,7 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N558">
         <v>0</v>
@@ -26297,7 +26297,7 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N559">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N562">
         <v>0</v>
@@ -26473,7 +26473,7 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N563">
         <v>0</v>
@@ -26649,7 +26649,7 @@
         <v>0</v>
       </c>
       <c r="M567">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N567">
         <v>0</v>
@@ -26781,7 +26781,7 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N570">
         <v>0</v>
@@ -26869,7 +26869,7 @@
         <v>0</v>
       </c>
       <c r="M572">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N572">
         <v>0</v>
@@ -27133,7 +27133,7 @@
         <v>0</v>
       </c>
       <c r="M578">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N578">
         <v>0</v>
@@ -27309,7 +27309,7 @@
         <v>0</v>
       </c>
       <c r="M582">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N582">
         <v>0</v>
@@ -27353,7 +27353,7 @@
         <v>0</v>
       </c>
       <c r="M583">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N583">
         <v>0</v>
@@ -27617,7 +27617,7 @@
         <v>0</v>
       </c>
       <c r="M589">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N589">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="M592">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N592">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="M594">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N594">
         <v>0</v>
@@ -27881,7 +27881,7 @@
         <v>0</v>
       </c>
       <c r="M595">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N595">
         <v>0</v>
@@ -27925,7 +27925,7 @@
         <v>0</v>
       </c>
       <c r="M596">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N596">
         <v>0</v>
@@ -28057,7 +28057,7 @@
         <v>0</v>
       </c>
       <c r="M599">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N599">
         <v>0</v>
@@ -28145,7 +28145,7 @@
         <v>0</v>
       </c>
       <c r="M601">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N601">
         <v>0</v>
@@ -28189,7 +28189,7 @@
         <v>0</v>
       </c>
       <c r="M602">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N602">
         <v>0</v>
@@ -28409,7 +28409,7 @@
         <v>0</v>
       </c>
       <c r="M607">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N607">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N609">
         <v>0</v>
@@ -28541,7 +28541,7 @@
         <v>0</v>
       </c>
       <c r="M610">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N610">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="M612">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N612">
         <v>0</v>
@@ -28673,7 +28673,7 @@
         <v>0</v>
       </c>
       <c r="M613">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N613">
         <v>0</v>
@@ -28717,7 +28717,7 @@
         <v>0</v>
       </c>
       <c r="M614">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N614">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="M615">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N615">
         <v>0</v>
@@ -28981,7 +28981,7 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N620">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="M621">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N621">
         <v>0</v>
@@ -29113,7 +29113,7 @@
         <v>0</v>
       </c>
       <c r="M623">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N623">
         <v>0</v>
@@ -29201,7 +29201,7 @@
         <v>0</v>
       </c>
       <c r="M625">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N625">
         <v>0</v>
@@ -29685,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="M636">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N636">
         <v>0</v>
@@ -30125,7 +30125,7 @@
         <v>0</v>
       </c>
       <c r="M646">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N646">
         <v>0</v>
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="M649">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N649">
         <v>0</v>
@@ -30301,7 +30301,7 @@
         <v>0</v>
       </c>
       <c r="M650">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N650">
         <v>0</v>
@@ -30345,7 +30345,7 @@
         <v>0</v>
       </c>
       <c r="M651">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N651">
         <v>0</v>
@@ -30389,7 +30389,7 @@
         <v>0</v>
       </c>
       <c r="M652">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N652">
         <v>0</v>
@@ -30565,7 +30565,7 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N656">
         <v>0</v>
@@ -30873,7 +30873,7 @@
         <v>0</v>
       </c>
       <c r="M663">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N663">
         <v>0</v>
@@ -31049,7 +31049,7 @@
         <v>0</v>
       </c>
       <c r="M667">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N667">
         <v>0</v>
@@ -31093,7 +31093,7 @@
         <v>0</v>
       </c>
       <c r="M668">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N668">
         <v>0</v>
@@ -31401,7 +31401,7 @@
         <v>0</v>
       </c>
       <c r="M675">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N675">
         <v>0</v>
@@ -31797,7 +31797,7 @@
         <v>0</v>
       </c>
       <c r="M684">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N684">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>0</v>
       </c>
       <c r="M685">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N685">
         <v>0</v>
@@ -32017,7 +32017,7 @@
         <v>0</v>
       </c>
       <c r="M689">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N689">
         <v>0</v>
@@ -32061,7 +32061,7 @@
         <v>0</v>
       </c>
       <c r="M690">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N690">
         <v>0</v>
@@ -32105,7 +32105,7 @@
         <v>0</v>
       </c>
       <c r="M691">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N691">
         <v>0</v>
@@ -32545,7 +32545,7 @@
         <v>0</v>
       </c>
       <c r="M701">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N701">
         <v>0</v>
@@ -32677,7 +32677,7 @@
         <v>0</v>
       </c>
       <c r="M704">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N704">
         <v>0</v>
@@ -32985,7 +32985,7 @@
         <v>0</v>
       </c>
       <c r="M711">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N711">
         <v>0</v>
@@ -33029,7 +33029,7 @@
         <v>0</v>
       </c>
       <c r="M712">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N712">
         <v>0</v>
@@ -33601,7 +33601,7 @@
         <v>0</v>
       </c>
       <c r="M725">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N725">
         <v>0</v>
@@ -33689,7 +33689,7 @@
         <v>0</v>
       </c>
       <c r="M727">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N727">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>0</v>
       </c>
       <c r="M728">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N728">
         <v>0</v>
@@ -34173,7 +34173,7 @@
         <v>0</v>
       </c>
       <c r="M738">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N738">
         <v>0</v>
@@ -34305,7 +34305,7 @@
         <v>0</v>
       </c>
       <c r="M741">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N741">
         <v>0</v>
@@ -34393,7 +34393,7 @@
         <v>0</v>
       </c>
       <c r="M743">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N743">
         <v>0</v>
@@ -34437,7 +34437,7 @@
         <v>0</v>
       </c>
       <c r="M744">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N744">
         <v>0</v>
@@ -34481,7 +34481,7 @@
         <v>0</v>
       </c>
       <c r="M745">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N745">
         <v>0</v>
@@ -34569,7 +34569,7 @@
         <v>0</v>
       </c>
       <c r="M747">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N747">
         <v>0</v>
@@ -34833,7 +34833,7 @@
         <v>0</v>
       </c>
       <c r="M753">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N753">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>0</v>
       </c>
       <c r="M754">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N754">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>0</v>
       </c>
       <c r="M761">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N761">
         <v>0</v>
@@ -35229,7 +35229,7 @@
         <v>0</v>
       </c>
       <c r="M762">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N762">
         <v>0</v>
@@ -35273,7 +35273,7 @@
         <v>0</v>
       </c>
       <c r="M763">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N763">
         <v>0</v>
@@ -35317,7 +35317,7 @@
         <v>0</v>
       </c>
       <c r="M764">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N764">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="M784">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N784">
         <v>0</v>
@@ -36549,7 +36549,7 @@
         <v>0</v>
       </c>
       <c r="M792">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N792">
         <v>0</v>
@@ -36593,7 +36593,7 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N793">
         <v>0</v>
@@ -37517,7 +37517,7 @@
         <v>0</v>
       </c>
       <c r="M814">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N814">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N815">
         <v>0</v>
@@ -41037,10 +41037,10 @@
         <v>0</v>
       </c>
       <c r="M894">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N894">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="895" spans="1:14">
@@ -41565,10 +41565,10 @@
         <v>0</v>
       </c>
       <c r="M906">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N906">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:14">
@@ -41609,10 +41609,10 @@
         <v>0</v>
       </c>
       <c r="M907">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N907">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:14">
@@ -41653,10 +41653,10 @@
         <v>0</v>
       </c>
       <c r="M908">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N908">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:14">
@@ -41697,10 +41697,10 @@
         <v>0</v>
       </c>
       <c r="M909">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N909">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="910" spans="1:14">
@@ -41741,10 +41741,10 @@
         <v>0</v>
       </c>
       <c r="M910">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N910">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="911" spans="1:14">
@@ -42357,7 +42357,7 @@
         <v>0</v>
       </c>
       <c r="M924">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N924">
         <v>0</v>
@@ -42489,7 +42489,7 @@
         <v>0</v>
       </c>
       <c r="M927">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N927">
         <v>0</v>
@@ -42885,7 +42885,7 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N936">
         <v>0</v>
@@ -43105,7 +43105,7 @@
         <v>0</v>
       </c>
       <c r="M941">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N941">
         <v>0</v>
@@ -43193,7 +43193,7 @@
         <v>0</v>
       </c>
       <c r="M943">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N943">
         <v>0</v>
@@ -43237,7 +43237,7 @@
         <v>0</v>
       </c>
       <c r="M944">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N944">
         <v>0</v>
@@ -43281,7 +43281,7 @@
         <v>0</v>
       </c>
       <c r="M945">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N945">
         <v>0</v>
@@ -43325,7 +43325,7 @@
         <v>0</v>
       </c>
       <c r="M946">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N946">
         <v>0</v>
@@ -43413,7 +43413,7 @@
         <v>0</v>
       </c>
       <c r="M948">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N948">
         <v>0</v>
@@ -43457,7 +43457,7 @@
         <v>0</v>
       </c>
       <c r="M949">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N949">
         <v>0</v>
@@ -43721,7 +43721,7 @@
         <v>0</v>
       </c>
       <c r="M955">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N955">
         <v>0</v>
@@ -43941,7 +43941,7 @@
         <v>0</v>
       </c>
       <c r="M960">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N960">
         <v>0</v>
@@ -43985,7 +43985,7 @@
         <v>0</v>
       </c>
       <c r="M961">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N961">
         <v>0</v>
@@ -44117,7 +44117,7 @@
         <v>0</v>
       </c>
       <c r="M964">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N964">
         <v>0</v>
@@ -44249,7 +44249,7 @@
         <v>0</v>
       </c>
       <c r="M967">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N967">
         <v>0</v>
@@ -44337,7 +44337,7 @@
         <v>0</v>
       </c>
       <c r="M969">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N969">
         <v>0</v>
@@ -44777,7 +44777,7 @@
         <v>0</v>
       </c>
       <c r="M979">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N979">
         <v>0</v>
@@ -45041,7 +45041,7 @@
         <v>0</v>
       </c>
       <c r="M985">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N985">
         <v>0</v>
@@ -45085,7 +45085,7 @@
         <v>0</v>
       </c>
       <c r="M986">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N986">
         <v>0</v>
@@ -45437,7 +45437,7 @@
         <v>0</v>
       </c>
       <c r="M994">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N994">
         <v>0</v>
@@ -45481,7 +45481,7 @@
         <v>0</v>
       </c>
       <c r="M995">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N995">
         <v>0</v>
@@ -45613,7 +45613,7 @@
         <v>0</v>
       </c>
       <c r="M998">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N998">
         <v>0</v>
@@ -45657,7 +45657,7 @@
         <v>0</v>
       </c>
       <c r="M999">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N999">
         <v>0</v>
@@ -45877,7 +45877,7 @@
         <v>0</v>
       </c>
       <c r="M1004">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1004">
         <v>0</v>
@@ -46053,7 +46053,7 @@
         <v>0</v>
       </c>
       <c r="M1008">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1008">
         <v>0</v>
@@ -46097,7 +46097,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -46273,7 +46273,7 @@
         <v>0</v>
       </c>
       <c r="M1013">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1013">
         <v>0</v>
@@ -46361,10 +46361,10 @@
         <v>1</v>
       </c>
       <c r="M1015">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1015">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1016" spans="1:14">
@@ -46449,7 +46449,7 @@
         <v>0</v>
       </c>
       <c r="M1017">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1017">
         <v>0</v>
@@ -46581,7 +46581,7 @@
         <v>0</v>
       </c>
       <c r="M1020">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1020">
         <v>0</v>
@@ -46625,7 +46625,7 @@
         <v>0</v>
       </c>
       <c r="M1021">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1021">
         <v>0</v>
@@ -46713,7 +46713,7 @@
         <v>0</v>
       </c>
       <c r="M1023">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1023">
         <v>0</v>
@@ -47153,7 +47153,7 @@
         <v>0</v>
       </c>
       <c r="M1033">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1033">
         <v>0</v>
@@ -47197,7 +47197,7 @@
         <v>0</v>
       </c>
       <c r="M1034">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1034">
         <v>0</v>
@@ -47241,7 +47241,7 @@
         <v>0</v>
       </c>
       <c r="M1035">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1035">
         <v>0</v>
